--- a/appium/src/main/resources/InputExcel/DataSheet.xlsx
+++ b/appium/src/main/resources/InputExcel/DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamlesh.maurya\git\AppiumProj\appium\src\main\resources\InputExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sankhare/git/Appium_Auto/appium/src/main/resources/InputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4572CC2B-60E3-4AF3-8255-4DF3BE29A244}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE51AE-62CA-1A4B-AD37-2C9C1CF5272A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UsrName</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Test1234!</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -368,28 +368,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
